--- a/TS Workout.xlsx
+++ b/TS Workout.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workout\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Workout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7495611E-A9CF-473F-8EBA-EFBCE7067E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1C62A8-3C4C-409C-BC29-A432878C40DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8D3FAC07-EC2D-4789-8AC9-0835079A545E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D3FAC07-EC2D-4789-8AC9-0835079A545E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Incline Bench Press</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Lying Tricep Extentions</t>
   </si>
   <si>
-    <t>Day</t>
-  </si>
-  <si>
     <t>Bulgarian Split Squats</t>
   </si>
   <si>
@@ -80,13 +77,42 @@
     <t>Barbell Deadlifts</t>
   </si>
   <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Upper</t>
-  </si>
-  <si>
-    <t>Lower</t>
+    <t>Athlene-X 
+Day</t>
+  </si>
+  <si>
+    <t>Reference 
+Weight</t>
+  </si>
+  <si>
+    <t>Reps /
+Weight</t>
+  </si>
+  <si>
+    <t>Reps /
+Weight2</t>
+  </si>
+  <si>
+    <t>Reps /
+Weight3</t>
+  </si>
+  <si>
+    <t>Reps /
+Weight4</t>
+  </si>
+  <si>
+    <t>Reps /
+Weight5</t>
+  </si>
+  <si>
+    <t>Reps /
+Weight6</t>
+  </si>
+  <si>
+    <t>Upper Body</t>
+  </si>
+  <si>
+    <t>Lower Body</t>
   </si>
 </sst>
 </file>
@@ -118,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -142,21 +168,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -166,64 +177,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -252,66 +205,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -345,26 +238,115 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -373,20 +355,423 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -397,6 +782,42 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C325053-68AE-4432-A66A-C201F2B17D25}" name="Table1" displayName="Table1" ref="A1:I13" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="22" tableBorderDxfId="23">
+  <autoFilter ref="A1:I13" xr:uid="{2C325053-68AE-4432-A66A-C201F2B17D25}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{CCA09280-17A2-4CF0-BE80-B803C08062E2}" name="Upper Body" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{DE1491FE-647C-473D-8B60-5B876BB9E0E1}" name="Athlene-X _x000a_Day" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{0AA82413-C269-431C-A2FC-116406A5BA0B}" name="Reference _x000a_Weight" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{889F53E9-A2B6-4B84-A845-E23C0E2D0EB6}" name="Reps /_x000a_Weight" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{BFC76F82-F43E-4DC5-A095-037F62C4DCB1}" name="Reps /_x000a_Weight6" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{9095149E-7EA4-4475-A46A-A7E658B644AE}" name="Reps /_x000a_Weight2" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{45E4CA1A-CADA-4C29-9463-40FCAEF440BC}" name="Reps /_x000a_Weight3" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{61FF14F0-5E5F-4F8F-9198-08FB92E50044}" name="Reps /_x000a_Weight4" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{8B9C3100-6696-4300-9B9B-B3A0D2490CF5}" name="Reps /_x000a_Weight5" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{899181A3-F88F-46A3-AA26-74F26C08A0A2}" name="Table2" displayName="Table2" ref="A16:I28" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="A16:I28" xr:uid="{899181A3-F88F-46A3-AA26-74F26C08A0A2}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{E2E1020A-2A7E-4D4E-9C0B-60B3A45EA7E4}" name="Lower Body" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{D088693A-2103-48A7-AC00-06C05DC0D7FE}" name="Athlene-X _x000a_Day" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{F89DD39B-C941-42B6-BD97-47ADDE9B3D94}" name="Reference _x000a_Weight" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{77BD3222-D1D0-40B7-803B-82E2708656F4}" name="Reps /_x000a_Weight6" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{9037DE54-F039-4FF7-B5EE-098219671DAC}" name="Reps /_x000a_Weight" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{1810BF26-7686-4742-A1AB-0E6DDB2A1C26}" name="Reps /_x000a_Weight2" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{118E4F54-8989-4E3B-A106-8B47EEF47F73}" name="Reps /_x000a_Weight3" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{3D3CD854-983E-477A-9F64-598FFBF41E92}" name="Reps /_x000a_Weight4" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{DC382684-7B9D-4CAF-A8DD-25CCF270A0EE}" name="Reps /_x000a_Weight5" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -696,247 +1117,432 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151CEBF7-529B-4D29-8F7B-614D86B84A2D}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:M1048576"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:9" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="E1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7">
+        <v>115</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
+        <v>26</v>
+      </c>
+      <c r="C4" s="6">
+        <v>115</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6">
+        <v>35</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6">
+        <v>30</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="10">
+        <v>13</v>
+      </c>
+      <c r="C12" s="10">
+        <v>25</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5">
+        <v>18</v>
+      </c>
+      <c r="C17" s="5">
+        <v>185</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="6">
+        <v>11</v>
+      </c>
+      <c r="C19" s="6">
+        <v>135</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="17">
+      <c r="B21" s="6">
+        <v>24</v>
+      </c>
+      <c r="C21" s="6">
+        <v>25</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="6">
+        <v>30</v>
+      </c>
+      <c r="C23" s="6">
+        <v>115</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="17">
-        <v>115</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="13">
-        <v>26</v>
-      </c>
-      <c r="C3" s="13">
-        <v>115</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="13">
-        <v>15</v>
-      </c>
-      <c r="C4" s="13">
-        <v>35</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="13">
-        <v>20</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="B25" s="6">
+        <v>29</v>
+      </c>
+      <c r="C25" s="6">
         <v>30</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13">
-        <v>22</v>
-      </c>
-      <c r="C6" s="13">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="14">
-        <v>13</v>
-      </c>
-      <c r="C7" s="14">
-        <v>25</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="12">
-        <v>18</v>
-      </c>
-      <c r="C10" s="12">
-        <v>185</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="13">
-        <v>11</v>
-      </c>
-      <c r="C11" s="13">
-        <v>135</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="13">
-        <v>24</v>
-      </c>
-      <c r="C12" s="13">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="13">
-        <v>30</v>
-      </c>
-      <c r="C13" s="13">
-        <v>115</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="13">
-        <v>29</v>
-      </c>
-      <c r="C14" s="13">
-        <v>30</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="14">
+      <c r="B27" s="10">
         <v>37</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C27" s="10">
         <v>40</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="12"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/TS Workout.xlsx
+++ b/TS Workout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Workout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1C62A8-3C4C-409C-BC29-A432878C40DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F231F758-CCB1-4602-A475-03CFF0EF0BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D3FAC07-EC2D-4789-8AC9-0835079A545E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Incline Bench Press</t>
   </si>
@@ -113,13 +113,19 @@
   </si>
   <si>
     <t>Lower Body</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Notes:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +141,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -144,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -336,11 +350,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -376,6 +399,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,8 +812,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C325053-68AE-4432-A66A-C201F2B17D25}" name="Table1" displayName="Table1" ref="A1:I13" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="22" tableBorderDxfId="23">
-  <autoFilter ref="A1:I13" xr:uid="{2C325053-68AE-4432-A66A-C201F2B17D25}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C325053-68AE-4432-A66A-C201F2B17D25}" name="Table1" displayName="Table1" ref="A3:I15" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="22" tableBorderDxfId="23">
+  <autoFilter ref="A3:I15" xr:uid="{2C325053-68AE-4432-A66A-C201F2B17D25}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{CCA09280-17A2-4CF0-BE80-B803C08062E2}" name="Upper Body" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{DE1491FE-647C-473D-8B60-5B876BB9E0E1}" name="Athlene-X _x000a_Day" dataDxfId="20"/>
@@ -798,13 +825,13 @@
     <tableColumn id="8" xr3:uid="{61FF14F0-5E5F-4F8F-9198-08FB92E50044}" name="Reps /_x000a_Weight4" dataDxfId="14"/>
     <tableColumn id="9" xr3:uid="{8B9C3100-6696-4300-9B9B-B3A0D2490CF5}" name="Reps /_x000a_Weight5" dataDxfId="13"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{899181A3-F88F-46A3-AA26-74F26C08A0A2}" name="Table2" displayName="Table2" ref="A16:I28" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="A16:I28" xr:uid="{899181A3-F88F-46A3-AA26-74F26C08A0A2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{899181A3-F88F-46A3-AA26-74F26C08A0A2}" name="Table2" displayName="Table2" ref="A18:I30" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="A18:I30" xr:uid="{899181A3-F88F-46A3-AA26-74F26C08A0A2}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{E2E1020A-2A7E-4D4E-9C0B-60B3A45EA7E4}" name="Lower Body" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{D088693A-2103-48A7-AC00-06C05DC0D7FE}" name="Athlene-X _x000a_Day" dataDxfId="8"/>
@@ -816,7 +843,7 @@
     <tableColumn id="8" xr3:uid="{3D3CD854-983E-477A-9F64-598FFBF41E92}" name="Reps /_x000a_Weight4" dataDxfId="2"/>
     <tableColumn id="9" xr3:uid="{DC382684-7B9D-4CAF-A8DD-25CCF270A0EE}" name="Reps /_x000a_Weight5" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1117,11 +1144,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151CEBF7-529B-4D29-8F7B-614D86B84A2D}">
-  <dimension ref="A1:I28"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1131,100 +1159,79 @@
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:9" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="3" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B4" s="7">
         <v>8</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C4" s="7">
         <v>115</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6">
-        <v>26</v>
-      </c>
-      <c r="C4" s="6">
-        <v>115</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="2"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="2"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C6" s="6">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1246,13 +1253,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C8" s="6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1274,13 +1281,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="6">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1290,32 +1297,32 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="10">
-        <v>13</v>
-      </c>
-      <c r="C12" s="10">
+      <c r="A12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6">
+        <v>22</v>
+      </c>
+      <c r="C12" s="6">
         <v>25</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
@@ -1329,110 +1336,116 @@
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10">
+        <v>13</v>
+      </c>
+      <c r="C14" s="10">
+        <v>25</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+    </row>
+    <row r="18" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B18" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C18" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E18" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F18" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I18" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B19" s="5">
         <v>18</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C19" s="5">
         <v>185</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="6">
-        <v>11</v>
-      </c>
-      <c r="C19" s="6">
-        <v>135</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="2"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="2"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B21" s="6">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C21" s="6">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -1454,13 +1467,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B23" s="6">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C23" s="6">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1482,13 +1495,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" s="6">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -1498,32 +1511,32 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="12"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="10">
-        <v>37</v>
-      </c>
-      <c r="C27" s="10">
-        <v>40</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="12"/>
+      <c r="A27" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="6">
+        <v>29</v>
+      </c>
+      <c r="C27" s="6">
+        <v>30</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
@@ -1536,10 +1549,48 @@
       <c r="H28" s="11"/>
       <c r="I28" s="12"/>
     </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="10">
+        <v>37</v>
+      </c>
+      <c r="C29" s="10">
+        <v>40</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="32" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A32" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions horizontalCentered="1" gridLines="1"/>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="82" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>

--- a/TS Workout.xlsx
+++ b/TS Workout.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Workout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C50FC2-C086-4F17-B637-B162FA5E58F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B9C61B-A0A8-4118-B16B-64D1A86E508F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D3FAC07-EC2D-4789-8AC9-0835079A545E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8D3FAC07-EC2D-4789-8AC9-0835079A545E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Side 1" sheetId="2" r:id="rId1"/>
+    <sheet name="Side 2" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$32</definedName>
-    <definedName name="Reps___Weight">Sheet1!$E$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Side 1'!$A$1:$I$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Side 2'!$A$1:$I$32,'Side 2'!$A$34:$I$65</definedName>
+    <definedName name="Reps___Weight" localSheetId="0">'Side 1'!$E$3</definedName>
+    <definedName name="Reps___Weight">'Side 2'!$E$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="24">
   <si>
     <t>Incline Bench Press</t>
   </si>
@@ -116,9 +119,6 @@
   <si>
     <t>Reps /
 Weight52</t>
-  </si>
-  <si>
-    <t>Reps / Weight</t>
   </si>
 </sst>
 </file>
@@ -314,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -373,6 +373,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -777,22 +784,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151CEBF7-529B-4D29-8F7B-614D86B84A2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C3C388-6298-4886-A28A-D1EAFB1B9B19}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -814,22 +821,22 @@
         <v>13</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1038,7 +1045,7 @@
       <c r="H18" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="33" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1218,12 +1225,889 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="66" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151CEBF7-529B-4D29-8F7B-614D86B84A2D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>115</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="13">
+        <v>26</v>
+      </c>
+      <c r="C6" s="13">
+        <v>115</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="13">
+        <v>15</v>
+      </c>
+      <c r="C8" s="13">
+        <v>35</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="13">
+        <v>20</v>
+      </c>
+      <c r="C10" s="13">
+        <v>30</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="13">
+        <v>22</v>
+      </c>
+      <c r="C12" s="13">
+        <v>25</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="13">
+        <v>13</v>
+      </c>
+      <c r="C14" s="13">
+        <v>25</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:9" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="25">
+        <v>18</v>
+      </c>
+      <c r="C19" s="25">
+        <v>185</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="27"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="29">
+        <v>11</v>
+      </c>
+      <c r="C21" s="29">
+        <v>135</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="31"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="29">
+        <v>24</v>
+      </c>
+      <c r="C23" s="29">
+        <v>25</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="31"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="29">
+        <v>30</v>
+      </c>
+      <c r="C25" s="29">
+        <v>115</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="31"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="29">
+        <v>29</v>
+      </c>
+      <c r="C27" s="29">
+        <v>30</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="31"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="29">
+        <v>37</v>
+      </c>
+      <c r="C29" s="29">
+        <v>40</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="31"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="19"/>
+    </row>
+    <row r="32" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="5">
+        <v>8</v>
+      </c>
+      <c r="C37" s="5">
+        <v>115</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="13">
+        <v>26</v>
+      </c>
+      <c r="C39" s="13">
+        <v>115</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="15"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="13">
+        <v>15</v>
+      </c>
+      <c r="C41" s="13">
+        <v>35</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="15"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="13">
+        <v>20</v>
+      </c>
+      <c r="C43" s="13">
+        <v>30</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="15"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="13">
+        <v>22</v>
+      </c>
+      <c r="C45" s="13">
+        <v>25</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="15"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="11"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="13">
+        <v>13</v>
+      </c>
+      <c r="C47" s="13">
+        <v>25</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="15"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="16"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="19"/>
+    </row>
+    <row r="49" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="25">
+        <v>18</v>
+      </c>
+      <c r="C52" s="25">
+        <v>185</v>
+      </c>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="27"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="11"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="29">
+        <v>11</v>
+      </c>
+      <c r="C54" s="29">
+        <v>135</v>
+      </c>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="31"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="11"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="29">
+        <v>24</v>
+      </c>
+      <c r="C56" s="29">
+        <v>25</v>
+      </c>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="31"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="11"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="29">
+        <v>30</v>
+      </c>
+      <c r="C58" s="29">
+        <v>115</v>
+      </c>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="31"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="11"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="29">
+        <v>29</v>
+      </c>
+      <c r="C60" s="29">
+        <v>30</v>
+      </c>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="31"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="11"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="29">
+        <v>37</v>
+      </c>
+      <c r="C62" s="29">
+        <v>40</v>
+      </c>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="31"/>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="16"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="19"/>
+    </row>
+    <row r="65" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A65" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B49:C49"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="32" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 

--- a/TS Workout.xlsx
+++ b/TS Workout.xlsx
@@ -8,19 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Workout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B9C61B-A0A8-4118-B16B-64D1A86E508F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6421DF-5F60-4B99-9262-8360302B6FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8D3FAC07-EC2D-4789-8AC9-0835079A545E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D3FAC07-EC2D-4789-8AC9-0835079A545E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Side 1" sheetId="2" r:id="rId1"/>
-    <sheet name="Side 2" sheetId="1" r:id="rId2"/>
+    <sheet name="Workout" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Side 1'!$A$1:$I$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Side 2'!$A$1:$I$32,'Side 2'!$A$34:$I$65</definedName>
-    <definedName name="Reps___Weight" localSheetId="0">'Side 1'!$E$3</definedName>
-    <definedName name="Reps___Weight">'Side 2'!$E$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Workout!$A$1:$I$32,Workout!$A$34:$I$65</definedName>
+    <definedName name="Reps___Weight">Workout!$E$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="24">
   <si>
     <t>Incline Bench Press</t>
   </si>
@@ -384,67 +381,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -784,14 +721,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C3C388-6298-4886-A28A-D1EAFB1B9B19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151CEBF7-529B-4D29-8F7B-614D86B84A2D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,457 +1159,7 @@
         <v>18</v>
       </c>
     </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151CEBF7-529B-4D29-8F7B-614D86B84A2D}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:I65"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5">
-        <v>115</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="13">
-        <v>26</v>
-      </c>
-      <c r="C6" s="13">
-        <v>115</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="13">
-        <v>15</v>
-      </c>
-      <c r="C8" s="13">
-        <v>35</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="13">
-        <v>20</v>
-      </c>
-      <c r="C10" s="13">
-        <v>30</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="13">
-        <v>22</v>
-      </c>
-      <c r="C12" s="13">
-        <v>25</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="13">
-        <v>13</v>
-      </c>
-      <c r="C14" s="13">
-        <v>25</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
-    </row>
-    <row r="16" spans="1:9" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="25">
-        <v>18</v>
-      </c>
-      <c r="C19" s="25">
-        <v>185</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="29">
-        <v>11</v>
-      </c>
-      <c r="C21" s="29">
-        <v>135</v>
-      </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="31"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="29">
-        <v>24</v>
-      </c>
-      <c r="C23" s="29">
-        <v>25</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="29">
-        <v>30</v>
-      </c>
-      <c r="C25" s="29">
-        <v>115</v>
-      </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="31"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="29">
-        <v>29</v>
-      </c>
-      <c r="C27" s="29">
-        <v>30</v>
-      </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="31"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="29">
-        <v>37</v>
-      </c>
-      <c r="C29" s="29">
-        <v>40</v>
-      </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="31"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="19"/>
-    </row>
-    <row r="32" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
+    <row r="33" spans="1:9" ht="6.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>17</v>

--- a/TS Workout.xlsx
+++ b/TS Workout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Workout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6421DF-5F60-4B99-9262-8360302B6FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCE479F-8A56-448D-9C8F-D6884A73FC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D3FAC07-EC2D-4789-8AC9-0835079A545E}"/>
   </bookViews>
@@ -179,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -307,11 +307,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -376,6 +387,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -727,8 +741,8 @@
   </sheetPr>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,8 +962,8 @@
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
@@ -1159,8 +1173,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="6.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:9" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
@@ -1365,12 +1379,12 @@
       <c r="H48" s="18"/>
       <c r="I48" s="19"/>
     </row>
-    <row r="49" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
@@ -1582,12 +1596,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B49:C49"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B49:C49"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TS Workout.xlsx
+++ b/TS Workout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Workout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3926385B-8F3F-46DC-B178-8926C9D63006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F4513B-7BC7-4CB3-AE97-573F5552C4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8D3FAC07-EC2D-4789-8AC9-0835079A545E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8D3FAC07-EC2D-4789-8AC9-0835079A545E}"/>
   </bookViews>
   <sheets>
     <sheet name="Workout" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="36">
   <si>
     <t>Incline Bench Press</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>High Bench Taps</t>
+  </si>
+  <si>
+    <t>Pullups / Inverted Rows</t>
+  </si>
+  <si>
+    <t>Chinups / Inverted Pulls</t>
   </si>
 </sst>
 </file>
@@ -774,19 +780,19 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="10" width="10.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="10" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="38.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:10" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -794,8 +800,8 @@
       <c r="C1" s="36"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
@@ -827,7 +833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -847,7 +853,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
@@ -863,7 +869,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
@@ -883,9 +889,9 @@
       <c r="I6" s="13"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -899,7 +905,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
@@ -919,7 +925,7 @@
       <c r="I8" s="13"/>
       <c r="J8" s="14"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
@@ -935,7 +941,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>3</v>
       </c>
@@ -955,7 +961,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -971,7 +977,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>4</v>
       </c>
@@ -991,7 +997,7 @@
       <c r="I12" s="13"/>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -1007,7 +1013,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>1</v>
       </c>
@@ -1027,9 +1033,9 @@
       <c r="I14" s="13"/>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -1043,7 +1049,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:10" ht="38.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:10" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1053,12 +1059,12 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>15</v>
       </c>
@@ -1090,7 +1096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>6</v>
       </c>
@@ -1110,7 +1116,7 @@
       <c r="I19" s="25"/>
       <c r="J19" s="26"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>27</v>
       </c>
@@ -1126,7 +1132,7 @@
       <c r="I20" s="9"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>10</v>
       </c>
@@ -1146,7 +1152,7 @@
       <c r="I21" s="29"/>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>31</v>
       </c>
@@ -1162,7 +1168,7 @@
       <c r="I22" s="9"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>5</v>
       </c>
@@ -1182,7 +1188,7 @@
       <c r="I23" s="29"/>
       <c r="J23" s="30"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
@@ -1198,7 +1204,7 @@
       <c r="I24" s="9"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>8</v>
       </c>
@@ -1218,7 +1224,7 @@
       <c r="I25" s="29"/>
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>32</v>
       </c>
@@ -1234,7 +1240,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>7</v>
       </c>
@@ -1254,7 +1260,7 @@
       <c r="I27" s="29"/>
       <c r="J27" s="30"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>33</v>
       </c>
@@ -1270,7 +1276,7 @@
       <c r="I28" s="9"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>9</v>
       </c>
@@ -1290,7 +1296,7 @@
       <c r="I29" s="29"/>
       <c r="J29" s="30"/>
     </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>29</v>
       </c>
@@ -1306,13 +1312,13 @@
       <c r="I30" s="17"/>
       <c r="J30" s="18"/>
     </row>
-    <row r="32" spans="1:10" ht="26" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:10" ht="38.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:10" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>16</v>
       </c>
@@ -1320,8 +1326,8 @@
       <c r="C34" s="36"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="36" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
         <v>14</v>
       </c>
@@ -1353,7 +1359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>0</v>
       </c>
@@ -1373,7 +1379,7 @@
       <c r="I37" s="5"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>25</v>
       </c>
@@ -1389,7 +1395,7 @@
       <c r="I38" s="9"/>
       <c r="J38" s="10"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>21</v>
       </c>
@@ -1409,7 +1415,7 @@
       <c r="I39" s="13"/>
       <c r="J39" s="14"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>26</v>
       </c>
@@ -1425,7 +1431,7 @@
       <c r="I40" s="9"/>
       <c r="J40" s="10"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>2</v>
       </c>
@@ -1445,7 +1451,7 @@
       <c r="I41" s="13"/>
       <c r="J41" s="14"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
@@ -1461,7 +1467,7 @@
       <c r="I42" s="9"/>
       <c r="J42" s="10"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>3</v>
       </c>
@@ -1481,7 +1487,7 @@
       <c r="I43" s="13"/>
       <c r="J43" s="14"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>22</v>
       </c>
@@ -1497,7 +1503,7 @@
       <c r="I44" s="9"/>
       <c r="J44" s="10"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>4</v>
       </c>
@@ -1517,7 +1523,7 @@
       <c r="I45" s="13"/>
       <c r="J45" s="14"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>23</v>
       </c>
@@ -1533,7 +1539,7 @@
       <c r="I46" s="9"/>
       <c r="J46" s="10"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>1</v>
       </c>
@@ -1553,7 +1559,7 @@
       <c r="I47" s="13"/>
       <c r="J47" s="14"/>
     </row>
-    <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>24</v>
       </c>
@@ -1569,7 +1575,7 @@
       <c r="I48" s="17"/>
       <c r="J48" s="18"/>
     </row>
-    <row r="49" spans="1:10" ht="38.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:10" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>16</v>
       </c>
@@ -1579,12 +1585,12 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="21" t="s">
         <v>15</v>
       </c>
@@ -1616,7 +1622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>6</v>
       </c>
@@ -1636,7 +1642,7 @@
       <c r="I52" s="25"/>
       <c r="J52" s="26"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>27</v>
       </c>
@@ -1652,7 +1658,7 @@
       <c r="I53" s="9"/>
       <c r="J53" s="10"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
         <v>10</v>
       </c>
@@ -1672,7 +1678,7 @@
       <c r="I54" s="29"/>
       <c r="J54" s="30"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>31</v>
       </c>
@@ -1688,7 +1694,7 @@
       <c r="I55" s="9"/>
       <c r="J55" s="10"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
         <v>5</v>
       </c>
@@ -1708,7 +1714,7 @@
       <c r="I56" s="29"/>
       <c r="J56" s="30"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>28</v>
       </c>
@@ -1724,7 +1730,7 @@
       <c r="I57" s="9"/>
       <c r="J57" s="10"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="27" t="s">
         <v>8</v>
       </c>
@@ -1744,7 +1750,7 @@
       <c r="I58" s="29"/>
       <c r="J58" s="30"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>32</v>
       </c>
@@ -1760,7 +1766,7 @@
       <c r="I59" s="9"/>
       <c r="J59" s="10"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="27" t="s">
         <v>7</v>
       </c>
@@ -1780,7 +1786,7 @@
       <c r="I60" s="29"/>
       <c r="J60" s="30"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>33</v>
       </c>
@@ -1796,7 +1802,7 @@
       <c r="I61" s="9"/>
       <c r="J61" s="10"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="27" t="s">
         <v>9</v>
       </c>
@@ -1816,7 +1822,7 @@
       <c r="I62" s="29"/>
       <c r="J62" s="30"/>
     </row>
-    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
         <v>29</v>
       </c>
@@ -1832,7 +1838,7 @@
       <c r="I63" s="17"/>
       <c r="J63" s="18"/>
     </row>
-    <row r="65" spans="1:1" ht="26" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>17</v>
       </c>

--- a/TS Workout.xlsx
+++ b/TS Workout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Workout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F4513B-7BC7-4CB3-AE97-573F5552C4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AF80C3-A717-48A1-B712-19B5AC30031E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8D3FAC07-EC2D-4789-8AC9-0835079A545E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D3FAC07-EC2D-4789-8AC9-0835079A545E}"/>
   </bookViews>
   <sheets>
     <sheet name="Workout" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="34">
   <si>
     <t>Incline Bench Press</t>
   </si>
@@ -118,40 +118,34 @@
     <t>Bench Dips</t>
   </si>
   <si>
-    <t>Chinups</t>
-  </si>
-  <si>
     <t>Pushups</t>
   </si>
   <si>
-    <t>Pullups</t>
-  </si>
-  <si>
     <t>Prisoner Squats</t>
   </si>
   <si>
-    <t>Lunges</t>
-  </si>
-  <si>
-    <t>Bench Bucks</t>
-  </si>
-  <si>
-    <t>Pike Pushups</t>
-  </si>
-  <si>
-    <t>Rocket Jumps</t>
-  </si>
-  <si>
-    <t>Hindu Squat Through</t>
-  </si>
-  <si>
-    <t>High Bench Taps</t>
-  </si>
-  <si>
     <t>Pullups / Inverted Rows</t>
   </si>
   <si>
     <t>Chinups / Inverted Pulls</t>
+  </si>
+  <si>
+    <t>Pike Pushups / Pushaways</t>
+  </si>
+  <si>
+    <t>Lunges / Skater Hops</t>
+  </si>
+  <si>
+    <t>High Bench Taps / High Knees</t>
+  </si>
+  <si>
+    <t>Bench Bucks / Mountain Climbers</t>
+  </si>
+  <si>
+    <t>Hindu Squat Through / KB Swings</t>
+  </si>
+  <si>
+    <t>Rocket Jumps / Jump Rope</t>
   </si>
 </sst>
 </file>
@@ -780,12 +774,12 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A34" sqref="A34:J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
@@ -855,7 +849,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -891,7 +885,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -927,7 +921,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1035,7 +1029,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -1118,7 +1112,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1154,7 +1148,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1190,7 +1184,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1262,7 +1256,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1298,7 +1292,7 @@
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -1381,7 +1375,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -1453,7 +1447,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -1561,7 +1555,7 @@
     </row>
     <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -1644,7 +1638,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -1680,7 +1674,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -1716,7 +1710,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -1788,7 +1782,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -1824,7 +1818,7 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
